--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Btc-Erbb2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Btc-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Btc</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.632154647909512</v>
+        <v>0.637502</v>
       </c>
       <c r="H2">
-        <v>0.632154647909512</v>
+        <v>1.912506</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6183852387299037</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6183852387299037</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N2">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O2">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P2">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q2">
-        <v>2.34305547779005</v>
+        <v>2.364999394582667</v>
       </c>
       <c r="R2">
-        <v>2.34305547779005</v>
+        <v>21.284994551244</v>
       </c>
       <c r="S2">
-        <v>0.4336295686808738</v>
+        <v>0.2648719862062164</v>
       </c>
       <c r="T2">
-        <v>0.4336295686808738</v>
+        <v>0.2648719862062164</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.632154647909512</v>
+        <v>0.637502</v>
       </c>
       <c r="H3">
-        <v>0.632154647909512</v>
+        <v>1.912506</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6183852387299037</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6183852387299037</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N3">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O3">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P3">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q3">
-        <v>2.229181202036126</v>
+        <v>2.294370548002667</v>
       </c>
       <c r="R3">
-        <v>2.229181202036126</v>
+        <v>20.649334932024</v>
       </c>
       <c r="S3">
-        <v>0.412554842304529</v>
+        <v>0.256961792689909</v>
       </c>
       <c r="T3">
-        <v>0.412554842304529</v>
+        <v>0.256961792689909</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,247 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.637502</v>
+      </c>
+      <c r="H4">
+        <v>1.912506</v>
+      </c>
+      <c r="I4">
+        <v>0.6183852387299037</v>
+      </c>
+      <c r="J4">
+        <v>0.6183852387299037</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1.352297666666667</v>
+      </c>
+      <c r="N4">
+        <v>4.056893</v>
+      </c>
+      <c r="O4">
+        <v>0.1561348068917112</v>
+      </c>
+      <c r="P4">
+        <v>0.1561348068917112</v>
+      </c>
+      <c r="Q4">
+        <v>0.8620924670953333</v>
+      </c>
+      <c r="R4">
+        <v>7.758832203858</v>
+      </c>
+      <c r="S4">
+        <v>0.09655145983377823</v>
+      </c>
+      <c r="T4">
+        <v>0.09655145983377823</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.632154647909512</v>
-      </c>
-      <c r="H4">
-        <v>0.632154647909512</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1.31474249576101</v>
-      </c>
-      <c r="N4">
-        <v>1.31474249576101</v>
-      </c>
-      <c r="O4">
-        <v>0.1538155890145972</v>
-      </c>
-      <c r="P4">
-        <v>0.1538155890145972</v>
-      </c>
-      <c r="Q4">
-        <v>0.8311205794994745</v>
-      </c>
-      <c r="R4">
-        <v>0.8311205794994745</v>
-      </c>
-      <c r="S4">
-        <v>0.1538155890145972</v>
-      </c>
-      <c r="T4">
-        <v>0.1538155890145972</v>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.393412</v>
+      </c>
+      <c r="H5">
+        <v>1.180236</v>
+      </c>
+      <c r="I5">
+        <v>0.3816147612700962</v>
+      </c>
+      <c r="J5">
+        <v>0.3816147612700962</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>3.709791333333333</v>
+      </c>
+      <c r="N5">
+        <v>11.129374</v>
+      </c>
+      <c r="O5">
+        <v>0.4283284425582907</v>
+      </c>
+      <c r="P5">
+        <v>0.4283284425582907</v>
+      </c>
+      <c r="Q5">
+        <v>1.459476428029334</v>
+      </c>
+      <c r="R5">
+        <v>13.135287852264</v>
+      </c>
+      <c r="S5">
+        <v>0.1634564563520742</v>
+      </c>
+      <c r="T5">
+        <v>0.1634564563520743</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.393412</v>
+      </c>
+      <c r="H6">
+        <v>1.180236</v>
+      </c>
+      <c r="I6">
+        <v>0.3816147612700962</v>
+      </c>
+      <c r="J6">
+        <v>0.3816147612700962</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.599001333333334</v>
+      </c>
+      <c r="N6">
+        <v>10.797004</v>
+      </c>
+      <c r="O6">
+        <v>0.4155367505499981</v>
+      </c>
+      <c r="P6">
+        <v>0.4155367505499982</v>
+      </c>
+      <c r="Q6">
+        <v>1.415890312549334</v>
+      </c>
+      <c r="R6">
+        <v>12.743012812944</v>
+      </c>
+      <c r="S6">
+        <v>0.1585749578600891</v>
+      </c>
+      <c r="T6">
+        <v>0.1585749578600891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.393412</v>
+      </c>
+      <c r="H7">
+        <v>1.180236</v>
+      </c>
+      <c r="I7">
+        <v>0.3816147612700962</v>
+      </c>
+      <c r="J7">
+        <v>0.3816147612700962</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.352297666666667</v>
+      </c>
+      <c r="N7">
+        <v>4.056893</v>
+      </c>
+      <c r="O7">
+        <v>0.1561348068917112</v>
+      </c>
+      <c r="P7">
+        <v>0.1561348068917112</v>
+      </c>
+      <c r="Q7">
+        <v>0.5320101296386667</v>
+      </c>
+      <c r="R7">
+        <v>4.788091166748</v>
+      </c>
+      <c r="S7">
+        <v>0.05958334705793294</v>
+      </c>
+      <c r="T7">
+        <v>0.05958334705793294</v>
       </c>
     </row>
   </sheetData>
